--- a/planilha/Planilha_Completa.xlsx
+++ b/planilha/Planilha_Completa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estagiario1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sistemas1\Documents\script\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF53A9ED-B837-4506-B9C3-DCCA9DD3B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D038544-0306-4749-AEB1-9E992149C3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventário Cadastro" sheetId="4" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="378">
   <si>
     <t>Atividade</t>
   </si>
@@ -1026,9 +1026,6 @@
     <t>Dedetização e desratização_T</t>
   </si>
   <si>
-    <t>Elevadores_Se</t>
-  </si>
-  <si>
     <t>Elevadores_M</t>
   </si>
   <si>
@@ -1110,15 +1107,9 @@
     <t>Rejuntamento e vedações_A</t>
   </si>
   <si>
-    <t>Reservatórios de água potável_Se</t>
-  </si>
-  <si>
     <t>Reservatórios de água potável_S</t>
   </si>
   <si>
-    <t>Revestimentos Cerâmicos, Mármores e Granitos_A</t>
-  </si>
-  <si>
     <t>Rondas Diárias_D</t>
   </si>
   <si>
@@ -1134,9 +1125,6 @@
     <t>Sistema de Incêndio_T</t>
   </si>
   <si>
-    <t>Sistema de irrigação_Se</t>
-  </si>
-  <si>
     <t>SPDA_A</t>
   </si>
   <si>
@@ -1225,6 +1213,15 @@
   </si>
   <si>
     <t>Limpeza Fachada</t>
+  </si>
+  <si>
+    <t>Elevadores_SE</t>
+  </si>
+  <si>
+    <t>Reservatórios de água potável_SE</t>
+  </si>
+  <si>
+    <t>Sistema de irrigação_SE</t>
   </si>
 </sst>
 </file>
@@ -1439,9 +1436,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1479,7 +1476,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1585,7 +1582,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1727,7 +1724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3622,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3698,7 +3695,7 @@
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
         <v>243</v>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -4030,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4055,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,18 +4116,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4143,18 +4140,18 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4164,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B17" t="s">
         <v>253</v>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
         <v>276</v>
@@ -4183,7 +4180,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
         <v>275</v>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
         <v>254</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
         <v>277</v>
@@ -4207,7 +4204,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
         <v>255</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
         <v>278</v>
@@ -4223,39 +4220,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B28" t="s">
         <v>256</v>
@@ -4263,7 +4260,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s">
         <v>291</v>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B30" t="s">
         <v>279</v>
@@ -4279,7 +4276,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
         <v>280</v>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s">
         <v>292</v>
@@ -4295,7 +4292,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s">
         <v>293</v>
@@ -4303,7 +4300,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s">
         <v>257</v>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s">
         <v>281</v>
@@ -4319,7 +4316,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s">
         <v>282</v>
@@ -4327,7 +4324,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
         <v>283</v>
@@ -4335,7 +4332,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s">
         <v>258</v>
@@ -4343,7 +4340,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s">
         <v>294</v>
@@ -4351,7 +4348,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s">
         <v>259</v>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s">
         <v>295</v>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s">
         <v>260</v>
@@ -4375,15 +4372,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
         <v>261</v>
@@ -4391,7 +4388,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s">
         <v>285</v>
@@ -4399,7 +4396,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s">
         <v>284</v>
@@ -4407,7 +4404,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
         <v>262</v>
@@ -4415,7 +4412,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
         <v>263</v>
@@ -4423,7 +4420,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s">
         <v>286</v>
@@ -4431,7 +4428,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s">
         <v>288</v>
@@ -4439,7 +4436,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
         <v>287</v>
@@ -4447,7 +4444,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s">
         <v>264</v>
@@ -4455,7 +4452,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s">
         <v>265</v>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s">
         <v>296</v>
@@ -4471,7 +4468,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B55" t="s">
         <v>266</v>
@@ -4479,7 +4476,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B56" t="s">
         <v>267</v>
@@ -4487,7 +4484,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B57" t="s">
         <v>268</v>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s">
         <v>297</v>
@@ -4503,7 +4500,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B59" t="s">
         <v>269</v>
@@ -4511,7 +4508,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B60" t="s">
         <v>298</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s">
         <v>270</v>
@@ -4527,7 +4524,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s">
         <v>289</v>
@@ -4535,15 +4532,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B63" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s">
         <v>299</v>
@@ -4551,7 +4548,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s">
         <v>300</v>
@@ -4559,7 +4556,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s">
         <v>271</v>
@@ -4567,7 +4564,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s">
         <v>289</v>
@@ -4575,10 +4572,10 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
